--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s4_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s4_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.15817787507424</v>
+        <v>36.55086884059591</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.43817787507424</v>
+        <v>36.5508688405959</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.72</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.32864898449879</v>
+        <v>24.28956874289246</v>
       </c>
     </row>
     <row r="4">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>21.61595173195241</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.65075183719856</v>
+        <v>27.11679712152663</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.99019379282146</v>
+        <v>28.95111355121513</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.96965243877682</v>
+        <v>29.43569772310489</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>188.5050000000007</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>188.4800000000007</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>199.3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>197.9800000000007</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>181.8750000000007</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>80.51000000000064</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>82.97000000000065</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>94.63500000000064</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>93.47500000000065</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>85.27000000000066</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>115.4650000000008</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>125.9050000000008</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>116.0200000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>120.7450000000008</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>124.4700000000008</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000000007</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000000008</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000000007</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000000008</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000000007</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>177.95</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>193.6700000000005</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>186.5250000000005</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>189.8050000000005</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>190.9200000000005</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>188.5050000000007</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>188.4800000000007</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>199.3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>197.9800000000007</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>181.8750000000007</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>177.95</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>193.6700000000005</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>186.5250000000005</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>189.8050000000005</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>190.9200000000005</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
